--- a/opm_hero_property/heroes/101.xlsx
+++ b/opm_hero_property/heroes/101.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11100</v>
       </c>
       <c r="D4" t="n">
-        <v>11100</v>
+        <v>11587</v>
       </c>
       <c r="E4" t="n">
         <v>253</v>
@@ -1304,7 +1305,7 @@
         <v>12346</v>
       </c>
       <c r="D5" t="n">
-        <v>12346</v>
+        <v>13385</v>
       </c>
       <c r="E5" t="n">
         <v>379</v>
@@ -1411,7 +1412,7 @@
         <v>13812</v>
       </c>
       <c r="D6" t="n">
-        <v>13812</v>
+        <v>15501</v>
       </c>
       <c r="E6" t="n">
         <v>519</v>
@@ -1518,7 +1519,7 @@
         <v>15498</v>
       </c>
       <c r="D7" t="n">
-        <v>15498</v>
+        <v>19918</v>
       </c>
       <c r="E7" t="n">
         <v>974</v>
@@ -1625,7 +1626,7 @@
         <v>17404</v>
       </c>
       <c r="D8" t="n">
-        <v>17404</v>
+        <v>26028</v>
       </c>
       <c r="E8" t="n">
         <v>1442</v>
@@ -1732,7 +1733,7 @@
         <v>19603</v>
       </c>
       <c r="D9" t="n">
-        <v>19603</v>
+        <v>34253</v>
       </c>
       <c r="E9" t="n">
         <v>1904</v>
@@ -1839,7 +1840,7 @@
         <v>20776</v>
       </c>
       <c r="D10" t="n">
-        <v>20776</v>
+        <v>41103</v>
       </c>
       <c r="E10" t="n">
         <v>2250</v>
@@ -1946,7 +1947,7 @@
         <v>22169</v>
       </c>
       <c r="D11" t="n">
-        <v>22169</v>
+        <v>49514</v>
       </c>
       <c r="E11" t="n">
         <v>2625</v>
@@ -2053,7 +2054,7 @@
         <v>25101</v>
       </c>
       <c r="D12" t="n">
-        <v>25101</v>
+        <v>64484</v>
       </c>
       <c r="E12" t="n">
         <v>3231</v>
@@ -2160,7 +2161,7 @@
         <v>25688</v>
       </c>
       <c r="D13" t="n">
-        <v>25688</v>
+        <v>66600</v>
       </c>
       <c r="E13" t="n">
         <v>3635</v>
@@ -2267,7 +2268,7 @@
         <v>26274</v>
       </c>
       <c r="D14" t="n">
-        <v>26274</v>
+        <v>68715</v>
       </c>
       <c r="E14" t="n">
         <v>4039</v>
@@ -2374,7 +2375,7 @@
         <v>26861</v>
       </c>
       <c r="D15" t="n">
-        <v>26861</v>
+        <v>70831</v>
       </c>
       <c r="E15" t="n">
         <v>4443</v>
@@ -2481,7 +2482,7 @@
         <v>27447</v>
       </c>
       <c r="D16" t="n">
-        <v>27447</v>
+        <v>72947</v>
       </c>
       <c r="E16" t="n">
         <v>4847</v>
@@ -2588,7 +2589,7 @@
         <v>28034</v>
       </c>
       <c r="D17" t="n">
-        <v>28034</v>
+        <v>75063</v>
       </c>
       <c r="E17" t="n">
         <v>5250</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>101</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29073.918544</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5458.772734</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2066.4488455</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>101</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>40744.13995300001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7756.136572</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3269.34658</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>101</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>73889.39810000001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13459.302</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7176.529269999999</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>101</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>73889.39810000001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13459.302</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7176.529269999999</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X5" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>101</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>67900.64509999999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12330.042</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6522.82417</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>101</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>270479.404692</v>
+      </c>
+      <c r="U7" t="n">
+        <v>46466.52888</v>
+      </c>
+      <c r="V7" t="n">
+        <v>31761.951514</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X7" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>243086.754732</v>
+      </c>
+      <c r="U8" t="n">
+        <v>41712.17447999999</v>
+      </c>
+      <c r="V8" t="n">
+        <v>28279.074694</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X8" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>252217.638052</v>
+      </c>
+      <c r="U9" t="n">
+        <v>43296.95928</v>
+      </c>
+      <c r="V9" t="n">
+        <v>29440.033634</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X9" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2360</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>261348.521372</v>
+      </c>
+      <c r="U10" t="n">
+        <v>44881.74408</v>
+      </c>
+      <c r="V10" t="n">
+        <v>30600.992574</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X10" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2560</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>101</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>270479.404692</v>
+      </c>
+      <c r="U11" t="n">
+        <v>46466.52888</v>
+      </c>
+      <c r="V11" t="n">
+        <v>31761.951514</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X11" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>101</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>270479.404692</v>
+      </c>
+      <c r="U12" t="n">
+        <v>46466.52888</v>
+      </c>
+      <c r="V12" t="n">
+        <v>31761.951514</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2460</v>
+      </c>
+      <c r="X12" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3720</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>101</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>403119.443748</v>
+      </c>
+      <c r="U13" t="n">
+        <v>68938.520858</v>
+      </c>
+      <c r="V13" t="n">
+        <v>53892.50083500001</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2620</v>
+      </c>
+      <c r="X13" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3840</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>101</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>403119.443748</v>
+      </c>
+      <c r="U14" t="n">
+        <v>68938.520858</v>
+      </c>
+      <c r="V14" t="n">
+        <v>53892.50083500001</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X14" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>101</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>985487.975678</v>
+      </c>
+      <c r="U15" t="n">
+        <v>166950.679782</v>
+      </c>
+      <c r="V15" t="n">
+        <v>152106.0455</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3020</v>
+      </c>
+      <c r="X15" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>101</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5098664.729763</v>
+      </c>
+      <c r="U16" t="n">
+        <v>870917.5057109999</v>
+      </c>
+      <c r="V16" t="n">
+        <v>767723.0579655</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3660</v>
+      </c>
+      <c r="X16" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>101</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8341470.654191501</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1423178.354169</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1248158.357546</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4700</v>
+      </c>
+      <c r="X17" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5400</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>101</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>227997.163275</v>
+      </c>
+      <c r="U18" t="n">
+        <v>42499.842284</v>
+      </c>
+      <c r="V18" t="n">
+        <v>25826.158862</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>101</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>305299.325343</v>
+      </c>
+      <c r="U19" t="n">
+        <v>54823.14741300001</v>
+      </c>
+      <c r="V19" t="n">
+        <v>36398.462946</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2460</v>
+      </c>
+      <c r="X19" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2360</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3720</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>101</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>391531.5023080001</v>
+      </c>
+      <c r="U20" t="n">
+        <v>68213.6189555</v>
+      </c>
+      <c r="V20" t="n">
+        <v>51778.00637800001</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X20" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2560</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>101</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>449056.452546</v>
+      </c>
+      <c r="U21" t="n">
+        <v>79746.556734</v>
+      </c>
+      <c r="V21" t="n">
+        <v>61851.9424075</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X21" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>101</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>518380.8082</v>
+      </c>
+      <c r="U22" t="n">
+        <v>95951.28950899999</v>
+      </c>
+      <c r="V22" t="n">
+        <v>75754.4515065</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3020</v>
+      </c>
+      <c r="X22" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>101</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>660226.2699134999</v>
+      </c>
+      <c r="U23" t="n">
+        <v>129098.171507</v>
+      </c>
+      <c r="V23" t="n">
+        <v>103950.8680215</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3660</v>
+      </c>
+      <c r="X23" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/101.xlsx
+++ b/opm_hero_property/heroes/101.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29073.918544</v>
+        <v>5233541.729763</v>
       </c>
       <c r="U2" t="n">
-        <v>5458.772734</v>
+        <v>894645.5057109999</v>
       </c>
       <c r="V2" t="n">
-        <v>2066.4488455</v>
+        <v>789563.0579655</v>
       </c>
       <c r="W2" t="n">
-        <v>1500</v>
+        <v>3660</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1800</v>
+        <v>2760</v>
       </c>
       <c r="AA2" t="n">
-        <v>2000</v>
+        <v>4620</v>
       </c>
       <c r="AB2" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11565971.019455</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1793107.633015525</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15961973.30247053</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>40744.13995300001</v>
+        <v>660226.2699134999</v>
       </c>
       <c r="U3" t="n">
-        <v>7756.136572</v>
+        <v>129098.171507</v>
       </c>
       <c r="V3" t="n">
-        <v>3269.34658</v>
+        <v>103950.8680215</v>
       </c>
       <c r="W3" t="n">
-        <v>1500</v>
+        <v>3660</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1800</v>
+        <v>2760</v>
       </c>
       <c r="AA3" t="n">
-        <v>2000</v>
+        <v>4620</v>
       </c>
       <c r="AB3" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1311007.809035</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>203588.335400425</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2164111.144435425</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>73889.39810000001</v>
+        <v>7488.6048</v>
       </c>
       <c r="U4" t="n">
-        <v>13459.302</v>
+        <v>1607.9028</v>
       </c>
       <c r="V4" t="n">
-        <v>7176.529269999999</v>
+        <v>582.5661</v>
       </c>
       <c r="W4" t="n">
-        <v>1500</v>
+        <v>562</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1800</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19196.239195</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4549.950000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23746.189195</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>73889.39810000001</v>
+        <v>20034.6926</v>
       </c>
       <c r="U5" t="n">
-        <v>13459.302</v>
+        <v>4026.9624</v>
       </c>
       <c r="V5" t="n">
-        <v>7176.529269999999</v>
+        <v>1791.036</v>
       </c>
       <c r="W5" t="n">
-        <v>1580</v>
+        <v>673</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1800</v>
+        <v>480</v>
       </c>
       <c r="AA5" t="n">
-        <v>2060</v>
+        <v>800</v>
       </c>
       <c r="AB5" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>49013.29016</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11988.35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>61001.64016</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>67900.64509999999</v>
+        <v>56701.02</v>
       </c>
       <c r="U6" t="n">
-        <v>12330.042</v>
+        <v>10352.4</v>
       </c>
       <c r="V6" t="n">
-        <v>6522.82417</v>
+        <v>5750.034</v>
       </c>
       <c r="W6" t="n">
-        <v>1580</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>2060</v>
+        <v>1500</v>
       </c>
       <c r="AB6" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>117754.6755</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9406.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>166167.7755</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>270479.404692</v>
+        <v>56701.02</v>
       </c>
       <c r="U7" t="n">
-        <v>46466.52888</v>
+        <v>10352.4</v>
       </c>
       <c r="V7" t="n">
-        <v>31761.951514</v>
+        <v>5750.034</v>
       </c>
       <c r="W7" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2760</v>
+        <v>900</v>
       </c>
       <c r="AA7" t="n">
-        <v>3780</v>
+        <v>1560</v>
       </c>
       <c r="AB7" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>117754.6755</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>166350.7755</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>243086.754732</v>
+        <v>56900.6451</v>
       </c>
       <c r="U8" t="n">
-        <v>41712.17447999999</v>
+        <v>10390.042</v>
       </c>
       <c r="V8" t="n">
-        <v>28279.074694</v>
+        <v>5771.82417</v>
       </c>
       <c r="W8" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA8" t="n">
-        <v>3780</v>
+        <v>1560</v>
       </c>
       <c r="AB8" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>117754.6755</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>584.6483775</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>166935.4238775</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,21 +7776,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>252217.638052</v>
+        <v>241384.6664</v>
       </c>
       <c r="U9" t="n">
-        <v>43296.95928</v>
+        <v>41710.696</v>
       </c>
       <c r="V9" t="n">
-        <v>29440.033634</v>
+        <v>28289.9788</v>
       </c>
       <c r="W9" t="n">
         <v>2540</v>
@@ -7594,7 +7802,7 @@
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2360</v>
+        <v>2160</v>
       </c>
       <c r="AA9" t="n">
         <v>3780</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>535653.2469</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>704173.8468999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,21 +7911,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>261348.521372</v>
+        <v>242297.754732</v>
       </c>
       <c r="U10" t="n">
-        <v>44881.74408</v>
+        <v>41869.17447999999</v>
       </c>
       <c r="V10" t="n">
-        <v>30600.992574</v>
+        <v>28406.074694</v>
       </c>
       <c r="W10" t="n">
         <v>2540</v>
@@ -7705,7 +7937,7 @@
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2560</v>
+        <v>2160</v>
       </c>
       <c r="AA10" t="n">
         <v>3780</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>535653.2469</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2674.1412345</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>706847.9881345</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,21 +8046,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>270479.404692</v>
+        <v>251428.638052</v>
       </c>
       <c r="U11" t="n">
-        <v>46466.52888</v>
+        <v>43453.95928</v>
       </c>
       <c r="V11" t="n">
-        <v>31761.951514</v>
+        <v>29567.033634</v>
       </c>
       <c r="W11" t="n">
         <v>2540</v>
@@ -7816,7 +8072,7 @@
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2760</v>
+        <v>2360</v>
       </c>
       <c r="AA11" t="n">
         <v>3780</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>535653.2469</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>29585.5535795</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>733759.4004794999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,24 +8181,24 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>270479.404692</v>
+        <v>260559.521372</v>
       </c>
       <c r="U12" t="n">
-        <v>46466.52888</v>
+        <v>45038.74408</v>
       </c>
       <c r="V12" t="n">
-        <v>31761.951514</v>
+        <v>30727.992574</v>
       </c>
       <c r="W12" t="n">
-        <v>2460</v>
+        <v>2540</v>
       </c>
       <c r="X12" t="n">
         <v>720</v>
@@ -7927,10 +8207,10 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2760</v>
+        <v>2560</v>
       </c>
       <c r="AA12" t="n">
-        <v>3720</v>
+        <v>3780</v>
       </c>
       <c r="AB12" t="n">
         <v>1080</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>535653.2469</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>56496.96592450001</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>760670.8128245</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,20 +8320,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>403119.443748</v>
+        <v>269690.404692</v>
       </c>
       <c r="U13" t="n">
-        <v>68938.520858</v>
+        <v>46623.52888</v>
       </c>
       <c r="V13" t="n">
-        <v>53892.50083500001</v>
+        <v>31888.951514</v>
       </c>
       <c r="W13" t="n">
-        <v>2620</v>
+        <v>2540</v>
       </c>
       <c r="X13" t="n">
         <v>720</v>
@@ -8041,7 +8345,7 @@
         <v>2760</v>
       </c>
       <c r="AA13" t="n">
-        <v>3840</v>
+        <v>3780</v>
       </c>
       <c r="AB13" t="n">
         <v>1080</v>
@@ -8050,25 +8354,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>535653.2469</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>83408.3782695</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>787582.2251695001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,20 +8455,20 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>403119.443748</v>
+        <v>269690.404692</v>
       </c>
       <c r="U14" t="n">
-        <v>68938.520858</v>
+        <v>46623.52888</v>
       </c>
       <c r="V14" t="n">
-        <v>53892.50083500001</v>
+        <v>31888.951514</v>
       </c>
       <c r="W14" t="n">
-        <v>2700</v>
+        <v>2460</v>
       </c>
       <c r="X14" t="n">
         <v>720</v>
@@ -8152,7 +8480,7 @@
         <v>2760</v>
       </c>
       <c r="AA14" t="n">
-        <v>3900</v>
+        <v>3720</v>
       </c>
       <c r="AB14" t="n">
         <v>1080</v>
@@ -8161,25 +8489,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>535653.2469</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>83408.3782695</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38947.6</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>787399.2251695001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,20 +8590,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>985487.975678</v>
+        <v>405619.443748</v>
       </c>
       <c r="U15" t="n">
-        <v>166950.679782</v>
+        <v>69746.520858</v>
       </c>
       <c r="V15" t="n">
-        <v>152106.0455</v>
+        <v>54666.50083500001</v>
       </c>
       <c r="W15" t="n">
-        <v>3020</v>
+        <v>2620</v>
       </c>
       <c r="X15" t="n">
         <v>720</v>
@@ -8263,7 +8615,7 @@
         <v>2760</v>
       </c>
       <c r="AA15" t="n">
-        <v>4140</v>
+        <v>3840</v>
       </c>
       <c r="AB15" t="n">
         <v>1080</v>
@@ -8272,25 +8624,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>826519.95019</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>128492.71727945</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111712</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1214213.81746945</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,20 +8725,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5098664.729763</v>
+        <v>405619.443748</v>
       </c>
       <c r="U16" t="n">
-        <v>870917.5057109999</v>
+        <v>69746.520858</v>
       </c>
       <c r="V16" t="n">
-        <v>767723.0579655</v>
+        <v>54666.50083500001</v>
       </c>
       <c r="W16" t="n">
-        <v>3660</v>
+        <v>2700</v>
       </c>
       <c r="X16" t="n">
         <v>720</v>
@@ -8374,7 +8750,7 @@
         <v>2760</v>
       </c>
       <c r="AA16" t="n">
-        <v>4620</v>
+        <v>3900</v>
       </c>
       <c r="AB16" t="n">
         <v>1080</v>
@@ -8383,25 +8759,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>826519.95019</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>128492.71727945</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111895</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1214396.81746945</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,20 +8860,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8341470.654191501</v>
+        <v>1022982.975678</v>
       </c>
       <c r="U17" t="n">
-        <v>1423178.354169</v>
+        <v>173807.679782</v>
       </c>
       <c r="V17" t="n">
-        <v>1248158.357546</v>
+        <v>158739.0455</v>
       </c>
       <c r="W17" t="n">
-        <v>4700</v>
+        <v>3020</v>
       </c>
       <c r="X17" t="n">
         <v>720</v>
@@ -8485,7 +8885,7 @@
         <v>2760</v>
       </c>
       <c r="AA17" t="n">
-        <v>5400</v>
+        <v>4140</v>
       </c>
       <c r="AB17" t="n">
         <v>1080</v>
@@ -8494,58 +8894,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1898606.79896</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>294666.1788388</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685692</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3148931.4777988</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>227997.163275</v>
+        <v>5233541.729763</v>
       </c>
       <c r="U18" t="n">
-        <v>42499.842284</v>
+        <v>894645.5057109999</v>
       </c>
       <c r="V18" t="n">
-        <v>25826.158862</v>
+        <v>789563.0579655</v>
       </c>
       <c r="W18" t="n">
-        <v>1580</v>
+        <v>3660</v>
       </c>
       <c r="X18" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1200</v>
+        <v>2760</v>
       </c>
       <c r="AA18" t="n">
-        <v>2060</v>
+        <v>4620</v>
       </c>
       <c r="AB18" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11565971.019455</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1793107.633015525</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15961973.30247053</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,34 +9116,34 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>305299.325343</v>
+        <v>8651188.654191501</v>
       </c>
       <c r="U19" t="n">
-        <v>54823.14741300001</v>
+        <v>1477211.354169</v>
       </c>
       <c r="V19" t="n">
-        <v>36398.462946</v>
+        <v>1297390.357546</v>
       </c>
       <c r="W19" t="n">
-        <v>2460</v>
+        <v>4700</v>
       </c>
       <c r="X19" t="n">
         <v>720</v>
@@ -8704,10 +9152,10 @@
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2360</v>
+        <v>2760</v>
       </c>
       <c r="AA19" t="n">
-        <v>3720</v>
+        <v>5400</v>
       </c>
       <c r="AB19" t="n">
         <v>1080</v>
@@ -8716,25 +9164,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18766074.18082</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2909123.6230271</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3470670.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26321710.5538471</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>391531.5023080001</v>
+        <v>216997.163275</v>
       </c>
       <c r="U20" t="n">
-        <v>68213.6189555</v>
+        <v>40559.842284</v>
       </c>
       <c r="V20" t="n">
-        <v>51778.00637800001</v>
+        <v>25075.158862</v>
       </c>
       <c r="W20" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2560</v>
+        <v>900</v>
       </c>
       <c r="AA20" t="n">
-        <v>3780</v>
+        <v>1560</v>
       </c>
       <c r="AB20" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>562861.8542200001</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2810.184271099999</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32982.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>646197.7384911</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>449056.452546</v>
+        <v>282199.325343</v>
       </c>
       <c r="U21" t="n">
-        <v>79746.556734</v>
+        <v>50749.14741300001</v>
       </c>
       <c r="V21" t="n">
-        <v>61851.9424075</v>
+        <v>34821.662946</v>
       </c>
       <c r="W21" t="n">
-        <v>2700</v>
+        <v>1410</v>
       </c>
       <c r="X21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2760</v>
+        <v>1550</v>
       </c>
       <c r="AA21" t="n">
-        <v>3900</v>
+        <v>2370</v>
       </c>
       <c r="AB21" t="n">
-        <v>1080</v>
+        <v>675</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>668993.29804</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49269</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>36919.2563922</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65965.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>840175.2544322</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,34 +9521,34 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>518380.8082</v>
+        <v>391531.5023080001</v>
       </c>
       <c r="U22" t="n">
-        <v>95951.28950899999</v>
+        <v>68213.6189555</v>
       </c>
       <c r="V22" t="n">
-        <v>75754.4515065</v>
+        <v>51778.00637800001</v>
       </c>
       <c r="W22" t="n">
-        <v>3020</v>
+        <v>2540</v>
       </c>
       <c r="X22" t="n">
         <v>720</v>
@@ -9037,10 +9557,10 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2760</v>
+        <v>2560</v>
       </c>
       <c r="AA22" t="n">
-        <v>4140</v>
+        <v>3780</v>
       </c>
       <c r="AB22" t="n">
         <v>1080</v>
@@ -9049,25 +9569,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>849965.2350900001</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>89499.72468445</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95470.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1172587.00977445</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,20 +9670,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>660226.2699134999</v>
+        <v>449056.452546</v>
       </c>
       <c r="U23" t="n">
-        <v>129098.171507</v>
+        <v>79746.556734</v>
       </c>
       <c r="V23" t="n">
-        <v>103950.8680215</v>
+        <v>61851.9424075</v>
       </c>
       <c r="W23" t="n">
-        <v>3660</v>
+        <v>2700</v>
       </c>
       <c r="X23" t="n">
         <v>720</v>
@@ -9151,7 +9695,7 @@
         <v>2760</v>
       </c>
       <c r="AA23" t="n">
-        <v>4620</v>
+        <v>3900</v>
       </c>
       <c r="AB23" t="n">
         <v>1080</v>
@@ -9160,25 +9704,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>928841.244895</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>144352.517958725</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>150324</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1368150.362853725</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>101</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>518380.8082</v>
+      </c>
+      <c r="U24" t="n">
+        <v>95951.28950899999</v>
+      </c>
+      <c r="V24" t="n">
+        <v>75754.4515065</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3020</v>
+      </c>
+      <c r="X24" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1053180.499545</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>163625.102429475</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>255711.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1629958.801974475</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>101</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>660226.2699134999</v>
+      </c>
+      <c r="U25" t="n">
+        <v>129098.171507</v>
+      </c>
+      <c r="V25" t="n">
+        <v>103950.8680215</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3660</v>
+      </c>
+      <c r="X25" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1311007.809035</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>203588.335400425</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2164111.144435425</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/101.xlsx
+++ b/opm_hero_property/heroes/101.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,30316;31,10658;41,2567</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,31976;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,22644;31,7988;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,3683;31,1283;41,360</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,3850;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,2751;31,961;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>30316.4715</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>10658.739</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2567.2174</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>31976.217</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>22644.5481</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>7988.1978</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>3683.673</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>1283.373</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>360.3278</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>3850.119</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>2751.4782</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>961.8245999999999</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,30319;31,10660;41,2567</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,31981;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,22646;31,7989;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,3686;31,1285;41,360</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,3855;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,2753;31,963;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>30319.5585</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>10660.377</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2567.6412</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>31981.131</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>22646.8539</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>7989.425399999999</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>3686.76</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1285.011</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>360.7515999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>3855.033</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>2753.784</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>963.0522</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,32480;31,11816;41,2961</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,35448;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,24260;31,8855;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,3919;31,1409;41,404</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,4228;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,2927;31,1056;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>32480.5367236</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>11816.087465</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2961.36720774</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>35448.26239500001</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>24260.97232824</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>8855.573243000001</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>3919.5236122</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1409.431205</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>404.24422822</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>4228.293615000001</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>2927.64416748</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>1056.298991</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,34933;31,13125;41,3407</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,39375;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,26093;31,9836;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4183;31,1550;41,453</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,4650;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,3124;31,1161;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>34933.57737940001</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>13125.0263599</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3407.4217477</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>39375.0790797</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>26093.24351196</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>9836.55821698</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>4183.3482313</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1550.1994963</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>453.5000181</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>4650.5984889</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>3124.70500542</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>1161.79786426</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,54023;31,11280;41,4221</t>
+          <t>21,37816;31,14664;41,3932</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,54023;31,11280;41,4221</t>
+          <t>21,0;31,43994;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,27011;31,5640;41,2110</t>
+          <t>21,28246;31,10990;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6418;31,1319;41,549</t>
+          <t>21,4493;31,1715;41,511</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6418;31,1319;41,549</t>
+          <t>21,0;31,5147;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3209;31,659;41,274</t>
+          <t>21,3356;31,1285;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>54023</v>
+        <v>37816.1499968</v>
       </c>
       <c r="O6" t="n">
-        <v>11280</v>
+        <v>14664.9253478</v>
       </c>
       <c r="P6" t="n">
-        <v>4221</v>
+        <v>3932.32455802</v>
       </c>
       <c r="Q6" t="n">
-        <v>54023</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11280</v>
+        <v>43994.7760434</v>
       </c>
       <c r="S6" t="n">
-        <v>4221</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27011</v>
+        <v>28246.34877312</v>
       </c>
       <c r="U6" t="n">
-        <v>5640</v>
+        <v>10990.63635956</v>
       </c>
       <c r="V6" t="n">
-        <v>2110</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6418</v>
+        <v>4493.1925136</v>
       </c>
       <c r="X6" t="n">
-        <v>1319</v>
+        <v>1715.6698286</v>
       </c>
       <c r="Y6" t="n">
-        <v>549</v>
+        <v>511.4249890599999</v>
       </c>
       <c r="Z6" t="n">
-        <v>6418</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1319</v>
+        <v>5147.0094858</v>
       </c>
       <c r="AB6" t="n">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3209</v>
+        <v>3356.13971424</v>
       </c>
       <c r="AD6" t="n">
-        <v>659</v>
+        <v>1285.80969572</v>
       </c>
       <c r="AE6" t="n">
-        <v>274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,60693;31,12644;41,5399</t>
+          <t>21,42485;31,16438;41,5028</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,60693;31,12644;41,5399</t>
+          <t>21,0;31,49314;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,30346;31,6322;41,2699</t>
+          <t>21,31734;31,12319;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7143;31,1467;41,679</t>
+          <t>21,5000;31,1908;41,633</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7143;31,1467;41,679</t>
+          <t>21,0;31,5725;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3571;31,733;41,339</t>
+          <t>21,3734;31,1430;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>60693</v>
+        <v>42485.7860175</v>
       </c>
       <c r="O7" t="n">
-        <v>12644</v>
+        <v>16438.3324287</v>
       </c>
       <c r="P7" t="n">
-        <v>5399</v>
+        <v>5028.89486236</v>
       </c>
       <c r="Q7" t="n">
-        <v>60693</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12644</v>
+        <v>49314.9972861</v>
       </c>
       <c r="S7" t="n">
-        <v>5399</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>30346</v>
+        <v>31734.2809845</v>
       </c>
       <c r="U7" t="n">
-        <v>6322</v>
+        <v>12319.71727074</v>
       </c>
       <c r="V7" t="n">
-        <v>2699</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7143</v>
+        <v>5000.12212875</v>
       </c>
       <c r="X7" t="n">
-        <v>1467</v>
+        <v>1908.3902019</v>
       </c>
       <c r="Y7" t="n">
-        <v>679</v>
+        <v>633.2121570799999</v>
       </c>
       <c r="Z7" t="n">
-        <v>7143</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1467</v>
+        <v>5725.1706057</v>
       </c>
       <c r="AB7" t="n">
-        <v>679</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3571</v>
+        <v>3734.78510025</v>
       </c>
       <c r="AD7" t="n">
-        <v>733</v>
+        <v>1430.24408538</v>
       </c>
       <c r="AE7" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,69323;31,14185;41,7027</t>
+          <t>21,48526;31,18441;41,6545</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,69323;31,14185;41,7027</t>
+          <t>21,0;31,55325;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,34661;31,7092;41,3513</t>
+          <t>21,36246;31,13821;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8076;31,1634;41,860</t>
+          <t>21,5653;31,2124;41,801</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,8076;31,1634;41,860</t>
+          <t>21,0;31,6374;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,4038;31,817;41,430</t>
+          <t>21,4222;31,1592;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>69323</v>
+        <v>48526.7608322</v>
       </c>
       <c r="O8" t="n">
-        <v>14185</v>
+        <v>18441.7896026</v>
       </c>
       <c r="P8" t="n">
-        <v>7027</v>
+        <v>6545.36526456</v>
       </c>
       <c r="Q8" t="n">
-        <v>69323</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14185</v>
+        <v>55325.36880780001</v>
       </c>
       <c r="S8" t="n">
-        <v>7027</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>34661</v>
+        <v>36246.51931548</v>
       </c>
       <c r="U8" t="n">
-        <v>7092</v>
+        <v>13821.20935052</v>
       </c>
       <c r="V8" t="n">
-        <v>3513</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>8076</v>
+        <v>5653.2818069</v>
       </c>
       <c r="X8" t="n">
-        <v>1634</v>
+        <v>2124.9026162</v>
       </c>
       <c r="Y8" t="n">
-        <v>860</v>
+        <v>801.27301368</v>
       </c>
       <c r="Z8" t="n">
-        <v>8076</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1634</v>
+        <v>6374.7078486</v>
       </c>
       <c r="AB8" t="n">
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>4038</v>
+        <v>4222.65539046</v>
       </c>
       <c r="AD8" t="n">
-        <v>817</v>
+        <v>1592.50943324</v>
       </c>
       <c r="AE8" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,80418;31,15963;41,9218</t>
+          <t>21,56293;31,20751;41,8586</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,80418;31,15963;41,9218</t>
+          <t>21,0;31,62255;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,40209;31,7981;41,4609</t>
+          <t>21,42047;31,15552;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9271;31,1825;41,1102</t>
+          <t>21,6489;31,2373;41,1026</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9271;31,1825;41,1102</t>
+          <t>21,0;31,7120;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4635;31,912;41,551</t>
+          <t>21,4847;31,1778;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>80418</v>
+        <v>56293.28593000001</v>
       </c>
       <c r="O9" t="n">
-        <v>15963</v>
+        <v>20751.93383445</v>
       </c>
       <c r="P9" t="n">
-        <v>9218</v>
+        <v>8586.164629059998</v>
       </c>
       <c r="Q9" t="n">
-        <v>80418</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15963</v>
+        <v>62255.80150335001</v>
       </c>
       <c r="S9" t="n">
-        <v>9218</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>40209</v>
+        <v>42047.63806200001</v>
       </c>
       <c r="U9" t="n">
-        <v>7981</v>
+        <v>15552.54821439</v>
       </c>
       <c r="V9" t="n">
-        <v>4609</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9271</v>
+        <v>6489.952735000001</v>
       </c>
       <c r="X9" t="n">
-        <v>1825</v>
+        <v>2373.40386465</v>
       </c>
       <c r="Y9" t="n">
-        <v>1102</v>
+        <v>1026.90568218</v>
       </c>
       <c r="Z9" t="n">
-        <v>9271</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1825</v>
+        <v>7120.211593950001</v>
       </c>
       <c r="AB9" t="n">
-        <v>1102</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4635</v>
+        <v>4847.597349000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>912</v>
+        <v>1778.74883043</v>
       </c>
       <c r="AE9" t="n">
-        <v>551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,88733;31,16910;41,11043</t>
+          <t>21,62113;31,21984;41,10285</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,88733;31,16910;41,11043</t>
+          <t>21,0;31,65952;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,44366;31,8455;41,5521</t>
+          <t>21,46395;31,16476;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10167;31,1927;41,1304</t>
+          <t>21,7116;31,2505;41,1214</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,10167;31,1927;41,1304</t>
+          <t>21,0;31,7517;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,5083;31,963;41,652</t>
+          <t>21,5315;31,1878;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>88733</v>
+        <v>62113.69678500001</v>
       </c>
       <c r="O10" t="n">
-        <v>16910</v>
+        <v>21984.1447644</v>
       </c>
       <c r="P10" t="n">
-        <v>11043</v>
+        <v>10285.81436606</v>
       </c>
       <c r="Q10" t="n">
-        <v>88733</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>16910</v>
+        <v>65952.4342932</v>
       </c>
       <c r="S10" t="n">
-        <v>11043</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>44366</v>
+        <v>46395.128619</v>
       </c>
       <c r="U10" t="n">
-        <v>8455</v>
+        <v>16476.02937288</v>
       </c>
       <c r="V10" t="n">
-        <v>5521</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10167</v>
+        <v>7116.9678825</v>
       </c>
       <c r="X10" t="n">
-        <v>1927</v>
+        <v>2505.8843628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304</v>
+        <v>1214.83604318</v>
       </c>
       <c r="Z10" t="n">
-        <v>10167</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1927</v>
+        <v>7517.6530884</v>
       </c>
       <c r="AB10" t="n">
-        <v>1304</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>5083</v>
+        <v>5315.9392755</v>
       </c>
       <c r="AD10" t="n">
-        <v>963</v>
+        <v>1878.03641256</v>
       </c>
       <c r="AE10" t="n">
-        <v>652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,98876;31,18036;41,13283</t>
+          <t>21,69213;31,23447;41,12372</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,98876;31,18036;41,13283</t>
+          <t>21,0;31,70341;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,49438;31,9018;41,6641</t>
+          <t>21,51698;31,17572;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11258;31,2048;41,1551</t>
+          <t>21,7880;31,2662;41,1445</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,11258;31,2048;41,1551</t>
+          <t>21,0;31,7988;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5629;31,1024;41,775</t>
+          <t>21,5886;31,1995;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>98876</v>
+        <v>69213.4435881</v>
       </c>
       <c r="O11" t="n">
-        <v>18036</v>
+        <v>23447.13378735</v>
       </c>
       <c r="P11" t="n">
-        <v>13283</v>
+        <v>12372.55046228</v>
       </c>
       <c r="Q11" t="n">
-        <v>98876</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>18036</v>
+        <v>70341.40136205</v>
       </c>
       <c r="S11" t="n">
-        <v>13283</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>49438</v>
+        <v>51698.20480254</v>
       </c>
       <c r="U11" t="n">
-        <v>9018</v>
+        <v>17572.46729997</v>
       </c>
       <c r="V11" t="n">
-        <v>6641</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>11258</v>
+        <v>7880.77192245</v>
       </c>
       <c r="X11" t="n">
-        <v>2048</v>
+        <v>2662.88490195</v>
       </c>
       <c r="Y11" t="n">
-        <v>1551</v>
+        <v>1445.35729684</v>
       </c>
       <c r="Z11" t="n">
-        <v>11258</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>2048</v>
+        <v>7988.654705850001</v>
       </c>
       <c r="AB11" t="n">
-        <v>1551</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5629</v>
+        <v>5886.45412983</v>
       </c>
       <c r="AD11" t="n">
-        <v>1024</v>
+        <v>1995.70055289</v>
       </c>
       <c r="AE11" t="n">
-        <v>775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,117559;31,20404;41,17270</t>
+          <t>21,82291;31,26526;41,16086</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,117559;31,20404;41,17270</t>
+          <t>21,0;31,79579;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,58779;31,10202;41,8635</t>
+          <t>21,61466;31,19880;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,13265;31,2302;41,1991</t>
+          <t>21,9285;31,2993;41,1855</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,13265;31,2302;41,1991</t>
+          <t>21,0;31,8979;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6632;31,1151;41,995</t>
+          <t>21,6936;31,2243;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>117559</v>
+        <v>82291.7296068</v>
       </c>
       <c r="O12" t="n">
-        <v>20404</v>
+        <v>26526.34026315</v>
       </c>
       <c r="P12" t="n">
-        <v>17270</v>
+        <v>16086.03012168</v>
       </c>
       <c r="Q12" t="n">
-        <v>117559</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20404</v>
+        <v>79579.02078945001</v>
       </c>
       <c r="S12" t="n">
-        <v>17270</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>58779</v>
+        <v>61466.88374712</v>
       </c>
       <c r="U12" t="n">
-        <v>10202</v>
+        <v>19880.18028513</v>
       </c>
       <c r="V12" t="n">
-        <v>8635</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>13265</v>
+        <v>9285.9023586</v>
       </c>
       <c r="X12" t="n">
-        <v>2302</v>
+        <v>2993.23406655</v>
       </c>
       <c r="Y12" t="n">
-        <v>1991</v>
+        <v>1855.12322504</v>
       </c>
       <c r="Z12" t="n">
-        <v>13265</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2302</v>
+        <v>8979.702199650001</v>
       </c>
       <c r="AB12" t="n">
-        <v>1991</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>6632</v>
+        <v>6936.00053724</v>
       </c>
       <c r="AD12" t="n">
-        <v>1151</v>
+        <v>2243.28091581</v>
       </c>
       <c r="AE12" t="n">
-        <v>995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,120452;31,20880;41,17835</t>
+          <t>21,84316;31,27145;41,16612</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,120452;31,20880;41,17835</t>
+          <t>21,0;31,81435;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,60226;31,10440;41,8917</t>
+          <t>21,62979;31,20343;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,13586;31,2355;41,2055</t>
+          <t>21,9510;31,3061;41,1914</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,13586;31,2355;41,2055</t>
+          <t>21,0;31,9185;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6793;31,1177;41,1027</t>
+          <t>21,7103;31,2294;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>120452</v>
+        <v>84316.43134320001</v>
       </c>
       <c r="O13" t="n">
-        <v>20880</v>
+        <v>27145.1770772</v>
       </c>
       <c r="P13" t="n">
-        <v>17835</v>
+        <v>16612.334732</v>
       </c>
       <c r="Q13" t="n">
-        <v>120452</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20880</v>
+        <v>81435.53123160001</v>
       </c>
       <c r="S13" t="n">
-        <v>17835</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>60226</v>
+        <v>62979.21198288001</v>
       </c>
       <c r="U13" t="n">
-        <v>10440</v>
+        <v>20343.96787544</v>
       </c>
       <c r="V13" t="n">
-        <v>8917</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>13586</v>
+        <v>9510.226916400001</v>
       </c>
       <c r="X13" t="n">
-        <v>2355</v>
+        <v>3061.7368964</v>
       </c>
       <c r="Y13" t="n">
-        <v>2055</v>
+        <v>1914.449996</v>
       </c>
       <c r="Z13" t="n">
-        <v>13586</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2355</v>
+        <v>9185.210689199999</v>
       </c>
       <c r="AB13" t="n">
-        <v>2055</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>6793</v>
+        <v>7103.55724776</v>
       </c>
       <c r="AD13" t="n">
-        <v>1177</v>
+        <v>2294.62039928</v>
       </c>
       <c r="AE13" t="n">
-        <v>1027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,123344;31,21356;41,18400</t>
+          <t>21,86341;31,27762;41,17138</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,123344;31,21356;41,18400</t>
+          <t>21,0;31,83288;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,61672;31,10678;41,9200</t>
+          <t>21,64491;31,20806;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13906;31,2407;41,2119</t>
+          <t>21,9734;31,3130;41,1973</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13906;31,2407;41,2119</t>
+          <t>21,0;31,9390;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6953;31,1203;41,1059</t>
+          <t>21,7271;31,2345;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>123344</v>
+        <v>86341.1330796</v>
       </c>
       <c r="O14" t="n">
-        <v>21356</v>
+        <v>27762.9646931</v>
       </c>
       <c r="P14" t="n">
-        <v>18400</v>
+        <v>17138.4240943</v>
       </c>
       <c r="Q14" t="n">
-        <v>123344</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>21356</v>
+        <v>83288.89407930001</v>
       </c>
       <c r="S14" t="n">
-        <v>18400</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>61672</v>
+        <v>64491.54021864</v>
       </c>
       <c r="U14" t="n">
-        <v>10678</v>
+        <v>20806.96914362</v>
       </c>
       <c r="V14" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13906</v>
+        <v>9734.551474200001</v>
       </c>
       <c r="X14" t="n">
-        <v>2407</v>
+        <v>3130.1280647</v>
       </c>
       <c r="Y14" t="n">
-        <v>2119</v>
+        <v>1973.7822079</v>
       </c>
       <c r="Z14" t="n">
-        <v>13906</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2407</v>
+        <v>9390.384194100001</v>
       </c>
       <c r="AB14" t="n">
-        <v>2119</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>6953</v>
+        <v>7271.113958280001</v>
       </c>
       <c r="AD14" t="n">
-        <v>1203</v>
+        <v>2345.87619794</v>
       </c>
       <c r="AE14" t="n">
-        <v>1059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,126236;31,21832;41,18965</t>
+          <t>21,88365;31,28381;41,17664</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,126236;31,21832;41,18965</t>
+          <t>21,0;31,85145;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,63118;31,10916;41,9482</t>
+          <t>21,66003;31,21270;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,14226;31,2460;41,2182</t>
+          <t>21,9958;31,3198;41,2033</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,14226;31,2460;41,2182</t>
+          <t>21,0;31,9596;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,7113;31,1230;41,1091</t>
+          <t>21,7438;31,2397;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>126236</v>
+        <v>88365.834816</v>
       </c>
       <c r="O15" t="n">
-        <v>21832</v>
+        <v>28381.84700715</v>
       </c>
       <c r="P15" t="n">
-        <v>18965</v>
+        <v>17664.76130462</v>
       </c>
       <c r="Q15" t="n">
-        <v>126236</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21832</v>
+        <v>85145.54102145002</v>
       </c>
       <c r="S15" t="n">
-        <v>18965</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>63118</v>
+        <v>66003.8684544</v>
       </c>
       <c r="U15" t="n">
-        <v>10916</v>
+        <v>21270.79083393</v>
       </c>
       <c r="V15" t="n">
-        <v>9482</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>14226</v>
+        <v>9958.876032</v>
       </c>
       <c r="X15" t="n">
-        <v>2460</v>
+        <v>3198.67639455</v>
       </c>
       <c r="Y15" t="n">
-        <v>2182</v>
+        <v>2033.14157886</v>
       </c>
       <c r="Z15" t="n">
-        <v>14226</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2460</v>
+        <v>9596.029183650002</v>
       </c>
       <c r="AB15" t="n">
-        <v>2182</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>7113</v>
+        <v>7438.670668799999</v>
       </c>
       <c r="AD15" t="n">
-        <v>1230</v>
+        <v>2397.24978141</v>
       </c>
       <c r="AE15" t="n">
-        <v>1091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,129129;31,22307;41,19530</t>
+          <t>21,90390;31,28999;41,18191</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,129129;31,22307;41,19530</t>
+          <t>21,0;31,86998;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,64564;31,11153;41,9765</t>
+          <t>21,67516;31,21733;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,14547;31,2513;41,2246</t>
+          <t>21,10183;31,3267;41,2092</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,14547;31,2513;41,2246</t>
+          <t>21,0;31,9801;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7273;31,1256;41,1123</t>
+          <t>21,7606;31,2448;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>129129</v>
+        <v>90390.53655240001</v>
       </c>
       <c r="O16" t="n">
-        <v>22307</v>
+        <v>28999.63462305</v>
       </c>
       <c r="P16" t="n">
-        <v>19530</v>
+        <v>18191.09851494</v>
       </c>
       <c r="Q16" t="n">
-        <v>129129</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22307</v>
+        <v>86998.90386915</v>
       </c>
       <c r="S16" t="n">
-        <v>19530</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>64564</v>
+        <v>67516.19669016</v>
       </c>
       <c r="U16" t="n">
-        <v>11153</v>
+        <v>21733.79210211</v>
       </c>
       <c r="V16" t="n">
-        <v>9765</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14547</v>
+        <v>10183.2005898</v>
       </c>
       <c r="X16" t="n">
-        <v>2513</v>
+        <v>3267.06756285</v>
       </c>
       <c r="Y16" t="n">
-        <v>2246</v>
+        <v>2092.50094982</v>
       </c>
       <c r="Z16" t="n">
-        <v>14547</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2513</v>
+        <v>9801.202688550002</v>
       </c>
       <c r="AB16" t="n">
-        <v>2246</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>7273</v>
+        <v>7606.22737932</v>
       </c>
       <c r="AD16" t="n">
-        <v>1256</v>
+        <v>2448.50558007</v>
       </c>
       <c r="AE16" t="n">
-        <v>1123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,132025;31,22783;41,20095</t>
+          <t>21,92418;31,29618;41,18717</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,132025;31,22783;41,20095</t>
+          <t>21,0;31,88855;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,66012;31,11391;41,10047</t>
+          <t>21,69030;31,22197;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14868;31,2565;41,2310</t>
+          <t>21,10407;31,3335;41,2151</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14868;31,2565;41,2310</t>
+          <t>21,0;31,10006;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7434;31,1282;41,1155</t>
+          <t>21,7774;31,2499;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>132025</v>
+        <v>92418.1942677</v>
       </c>
       <c r="O17" t="n">
-        <v>22783</v>
+        <v>29618.4714371</v>
       </c>
       <c r="P17" t="n">
-        <v>20095</v>
+        <v>18717.40312526</v>
       </c>
       <c r="Q17" t="n">
-        <v>132025</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>22783</v>
+        <v>88855.4143113</v>
       </c>
       <c r="S17" t="n">
-        <v>20095</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>66012</v>
+        <v>69030.73286118</v>
       </c>
       <c r="U17" t="n">
-        <v>11391</v>
+        <v>22197.57969242</v>
       </c>
       <c r="V17" t="n">
-        <v>10047</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14868</v>
+        <v>10407.81784665</v>
       </c>
       <c r="X17" t="n">
-        <v>2565</v>
+        <v>3335.5703927</v>
       </c>
       <c r="Y17" t="n">
-        <v>2310</v>
+        <v>2151.82772078</v>
       </c>
       <c r="Z17" t="n">
-        <v>14868</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2565</v>
+        <v>10006.7111781</v>
       </c>
       <c r="AB17" t="n">
-        <v>2310</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7434</v>
+        <v>7774.002718109999</v>
       </c>
       <c r="AD17" t="n">
-        <v>1282</v>
+        <v>2499.84506354</v>
       </c>
       <c r="AE17" t="n">
-        <v>1155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5107,28 +5107,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5175</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1658</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -5137,52 +5137,52 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3555</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1139</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2633</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1839</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -5191,57 +5191,57 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1809</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,5175;31,1658;41,1050;22,28;32,52;42,37</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,3300;41,0;22,0;32,156;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,3555;31,1139;41,0;22,21;32,39;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,2633;31,924;41,417;22,24;32,45;42,32</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1839;41,0;22,0;32,136;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,1809;31,634;41,0;22,17;32,33;42,0</t>
         </is>
       </c>
     </row>
@@ -5250,28 +5250,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>10350</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3317</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6601</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -5280,52 +5280,52 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7110</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2278</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>3040</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>2041</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -5334,57 +5334,57 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>2089</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,10350;31,3317;41,2100;22,56;32,104;42,74</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,6601;41,0;22,0;32,312;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,7110;31,2278;41,0;22,42;32,78;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,3040;31,1026;41,520;22,49;32,91;42,65</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,2041;41,0;22,0;32,273;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,2089;31,704;41,0;22,36;32,68;42,0</t>
         </is>
       </c>
     </row>
@@ -5393,28 +5393,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>15526</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4975</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3151</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9902</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -5423,52 +5423,52 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>10666</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3418</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>3734</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1203</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>2395</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -5477,57 +5477,57 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>2565</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,15526;31,4975;41,3151;22,84;32,156;42,112</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,9902;41,0;22,0;32,468;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,10666;31,3418;41,0;22,63;32,117;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,3734;31,1203;41,698;22,73;32,136;42,98</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,2395;41,0;22,0;32,409;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,2565;31,826;41,0;22,54;32,101;42,0</t>
         </is>
       </c>
     </row>
@@ -5536,28 +5536,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>20701</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6634</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4201</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>13202</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -5566,52 +5566,52 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>14221</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4557</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>4005</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1289</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>2566</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -5620,57 +5620,57 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2751</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>885</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,20701;31,6634;41,4201;22,112;32,208;42,149</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,13202;41,0;22,0;32,624;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,14221;31,4557;41,0;22,84;32,156;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,4005;31,1289;41,761;22,98;32,182;42,130</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,2566;41,0;22,0;32,546;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,2751;31,885;41,0;22,73;32,136;42,0</t>
         </is>
       </c>
     </row>
@@ -5679,28 +5679,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>25877</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>8293</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5252</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>16503</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -5709,52 +5709,52 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>17777</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>5697</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>4293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>2747</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -5763,57 +5763,57 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2949</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>948</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,25877;31,8293;41,5252;22,140;32,260;42,186</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,16503;41,0;22,0;32,780;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,17777;31,5697;41,0;22,105;32,195;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,4293;31,1380;41,828;22,122;32,227;42,163</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,2747;41,0;22,0;32,682;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,2949;31,948;41,0;22,91;32,169;42,0</t>
         </is>
       </c>
     </row>
@@ -5822,28 +5822,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>31052</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9951</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6302</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>19804</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -5852,52 +5852,52 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>21332</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>6836</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>4601</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1477</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>2940</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -5906,57 +5906,57 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>3160</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,31052;31,9951;41,6302;22,168;32,312;42,224</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,19804;41,0;22,0;32,936;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,21332;31,6836;41,0;22,126;32,234;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,4601;31,1477;41,900;22,147;32,273;42,196</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,2940;41,0;22,0;32,819;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,3160;31,1015;41,0;22,110;32,204;42,0</t>
         </is>
       </c>
     </row>
@@ -5965,28 +5965,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>36227</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>11610</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>7352</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>23104</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -5995,52 +5995,52 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1092</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>24887</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>7975</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>4928</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1581</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>3146</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -6049,57 +6049,57 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>3385</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1086</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,36227;31,11610;41,7352;22,196;32,364;42,261</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,23104;41,0;22,0;32,1092;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,24887;31,7975;41,0;22,147;32,273;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,4928;31,1581;41,977;22,171;32,318;42,228</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,3146;41,0;22,0;32,955;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,3385;31,1086;41,0;22,128;32,237;42,0</t>
         </is>
       </c>
     </row>
@@ -6108,28 +6108,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>41403</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>13268</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8403</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26405</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6138,52 +6138,52 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>28443</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>9115</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>5476</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1755</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1108</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>3493</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -6192,57 +6192,57 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1092</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>3762</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1205</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,41403;31,13268;41,8403;22,220;32,409;42,294</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,26405;41,0;22,0;32,1228;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,28443;31,9115;41,0;22,164;32,306;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,5476;31,1755;41,1108;22,196;32,364;42,261</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,3493;41,0;22,0;32,1092;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,3762;31,1205;41,0;22,147;32,273;42,0</t>
         </is>
       </c>
     </row>
@@ -6251,28 +6251,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>46578</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14927</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>9453</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>29706</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -6281,52 +6281,52 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1306</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>31998</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>10254</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>5930</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>3782</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -6335,57 +6335,57 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>4073</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1305</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,46578;31,14927;41,9453;22,234;32,435;42,312</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,29706;41,0;22,0;32,1306;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,31998;31,10254;41,0;22,175;32,325;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,5930;31,1900;41,1214;22,220;32,409;42,294</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,3782;41,0;22,0;32,1228;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,4073;31,1305;41,0;22,164;32,306;42,0</t>
         </is>
       </c>
     </row>
@@ -6394,28 +6394,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>51754</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>16586</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>10504</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>33007</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -6424,52 +6424,52 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1365</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>35554</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>11394</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6393</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1324</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>4077</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -6478,57 +6478,57 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1365</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>4392</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1407</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,51754;31,16586;41,10504;22,245;32,455;42,326</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,33007;41,0;22,0;32,1365;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,35554;31,11394;41,0;22,183;32,341;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,6393;31,2048;41,1324;22,245;32,455;42,326</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,4077;41,0;22,0;32,1365;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,4392;31,1407;41,0;22,183;32,341;42,0</t>
         </is>
       </c>
     </row>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5233541.729763</v>
+        <v>5377713.924030701</v>
       </c>
       <c r="U2" t="n">
-        <v>894645.5057109999</v>
+        <v>940849.9771480999</v>
       </c>
       <c r="V2" t="n">
-        <v>789563.0579655</v>
+        <v>818784.4610907601</v>
       </c>
       <c r="W2" t="n">
         <v>3660</v>
@@ -6886,8 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,121862;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,104584;31,33591;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11565971.019455</v>
       </c>
@@ -6907,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>631006.115153935</v>
       </c>
       <c r="AS2" t="n">
-        <v>15961973.30247053</v>
+        <v>16592979.41762446</v>
       </c>
     </row>
     <row r="3">
@@ -6974,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>660226.2699134999</v>
+        <v>677027.08776015</v>
       </c>
       <c r="U3" t="n">
-        <v>129098.171507</v>
+        <v>134481.7418997</v>
       </c>
       <c r="V3" t="n">
-        <v>103950.8680215</v>
+        <v>107426.69574228</v>
       </c>
       <c r="W3" t="n">
         <v>3660</v>
@@ -7021,8 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,14083;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,12166;31,3906;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1311007.809035</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>73933.46295076501</v>
       </c>
       <c r="AS3" t="n">
-        <v>2164111.144435425</v>
+        <v>2238044.60738619</v>
       </c>
     </row>
     <row r="4">
@@ -7514,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>56701.02</v>
+        <v>61987.810056</v>
       </c>
       <c r="U7" t="n">
-        <v>10352.4</v>
+        <v>12049.54768</v>
       </c>
       <c r="V7" t="n">
-        <v>5750.034</v>
+        <v>6816.1587258</v>
       </c>
       <c r="W7" t="n">
         <v>1080</v>
@@ -7561,8 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,3417;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,3638;31,1168;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>117754.6755</v>
       </c>
@@ -7582,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>23127.32622135</v>
       </c>
       <c r="AS7" t="n">
-        <v>166350.7755</v>
+        <v>189478.10172135</v>
       </c>
     </row>
     <row r="8">
@@ -7649,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>56900.6451</v>
+        <v>67474.225212</v>
       </c>
       <c r="U8" t="n">
-        <v>10390.042</v>
+        <v>13785.33736</v>
       </c>
       <c r="V8" t="n">
-        <v>5771.82417</v>
+        <v>7904.0736216</v>
       </c>
       <c r="W8" t="n">
         <v>1080</v>
@@ -7696,8 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,6835;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,7277;31,2336;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>117754.6755</v>
       </c>
@@ -7717,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>46261.55244270001</v>
       </c>
       <c r="AS8" t="n">
-        <v>166935.4238775</v>
+        <v>213196.9763202</v>
       </c>
     </row>
     <row r="9">
@@ -7919,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>242297.754732</v>
+        <v>247984.08419792</v>
       </c>
       <c r="U10" t="n">
-        <v>41869.17447999999</v>
+        <v>43691.9920992</v>
       </c>
       <c r="V10" t="n">
-        <v>28406.074694</v>
+        <v>29541.98565556</v>
       </c>
       <c r="W10" t="n">
         <v>2540</v>
@@ -7966,8 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,3794;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,3938;31,1262;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>535653.2469</v>
       </c>
@@ -7987,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>24795.25906737</v>
       </c>
       <c r="AS10" t="n">
-        <v>706847.9881345</v>
+        <v>731643.24720187</v>
       </c>
     </row>
     <row r="11">
@@ -8054,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>251428.638052</v>
+        <v>279862.2853816</v>
       </c>
       <c r="U11" t="n">
-        <v>43453.95928</v>
+        <v>52571.04737599999</v>
       </c>
       <c r="V11" t="n">
-        <v>29567.033634</v>
+        <v>35250.91035968</v>
       </c>
       <c r="W11" t="n">
         <v>2540</v>
@@ -8101,8 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,18975;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,19694;31,6315;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>535653.2469</v>
       </c>
@@ -8122,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>124023.84636466</v>
       </c>
       <c r="AS11" t="n">
-        <v>733759.4004794999</v>
+        <v>857783.2468441599</v>
       </c>
     </row>
     <row r="12">
@@ -8189,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>260559.521372</v>
+        <v>288993.1687016</v>
       </c>
       <c r="U12" t="n">
-        <v>45038.74408</v>
+        <v>54155.832176</v>
       </c>
       <c r="V12" t="n">
-        <v>30727.992574</v>
+        <v>36411.86929968</v>
       </c>
       <c r="W12" t="n">
         <v>2540</v>
@@ -8236,8 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,18975;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,19694;31,6315;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>535653.2469</v>
       </c>
@@ -8257,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>124023.84636466</v>
       </c>
       <c r="AS12" t="n">
-        <v>760670.8128245</v>
+        <v>884694.65918916</v>
       </c>
     </row>
     <row r="13">
@@ -8324,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>269690.404692</v>
+        <v>325918.5375188</v>
       </c>
       <c r="U13" t="n">
-        <v>46623.52888</v>
+        <v>64651.683048</v>
       </c>
       <c r="V13" t="n">
-        <v>31888.951514</v>
+        <v>43149.89674288</v>
       </c>
       <c r="W13" t="n">
         <v>2540</v>
@@ -8371,8 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,37333;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,38895;31,12474;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>535653.2469</v>
       </c>
@@ -8392,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>245372.83165206</v>
       </c>
       <c r="AS13" t="n">
-        <v>787582.2251695001</v>
+        <v>1032955.05682156</v>
       </c>
     </row>
     <row r="14">
@@ -8459,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>269690.404692</v>
+        <v>298124.0520216</v>
       </c>
       <c r="U14" t="n">
-        <v>46623.52888</v>
+        <v>55740.616976</v>
       </c>
       <c r="V14" t="n">
-        <v>31888.951514</v>
+        <v>37572.82823968</v>
       </c>
       <c r="W14" t="n">
         <v>2460</v>
@@ -8506,8 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,18975;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,19694;31,6315;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>535653.2469</v>
       </c>
@@ -8527,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>124023.84636466</v>
       </c>
       <c r="AS14" t="n">
-        <v>787399.2251695001</v>
+        <v>911423.0715341601</v>
       </c>
     </row>
     <row r="15">
@@ -8594,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>405619.443748</v>
+        <v>441274.69383888</v>
       </c>
       <c r="U15" t="n">
-        <v>69746.520858</v>
+        <v>81177.68453832</v>
       </c>
       <c r="V15" t="n">
-        <v>54666.50083500001</v>
+        <v>61842.48291180001</v>
       </c>
       <c r="W15" t="n">
         <v>2620</v>
@@ -8641,8 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,24244;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,24784;31,7946;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>826519.95019</v>
       </c>
@@ -8662,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>155792.176426688</v>
       </c>
       <c r="AS15" t="n">
-        <v>1214213.81746945</v>
+        <v>1370005.993896138</v>
       </c>
     </row>
     <row r="16">
@@ -8729,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>405619.443748</v>
+        <v>447216.90218736</v>
       </c>
       <c r="U16" t="n">
-        <v>69746.520858</v>
+        <v>83083.37848504001</v>
       </c>
       <c r="V16" t="n">
-        <v>54666.50083500001</v>
+        <v>63036.8460227</v>
       </c>
       <c r="W16" t="n">
         <v>2700</v>
@@ -8776,8 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,28284;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,28914;31,9270;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>826519.95019</v>
       </c>
@@ -8797,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>181751.260895211</v>
       </c>
       <c r="AS16" t="n">
-        <v>1214396.81746945</v>
+        <v>1396148.078364661</v>
       </c>
     </row>
     <row r="17">
@@ -8864,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1022982.975678</v>
+        <v>1077763.2514052</v>
       </c>
       <c r="U17" t="n">
-        <v>173807.679782</v>
+        <v>191372.00982796</v>
       </c>
       <c r="V17" t="n">
-        <v>158739.0455</v>
+        <v>170030.48084</v>
       </c>
       <c r="W17" t="n">
         <v>3020</v>
@@ -8911,8 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,39304;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,38415;31,12329;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1898606.79896</v>
       </c>
@@ -8932,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>240899.906249324</v>
       </c>
       <c r="AS17" t="n">
-        <v>3148931.4777988</v>
+        <v>3389831.384048124</v>
       </c>
     </row>
     <row r="18">
@@ -8999,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5233541.729763</v>
+        <v>5377713.924030701</v>
       </c>
       <c r="U18" t="n">
-        <v>894645.5057109999</v>
+        <v>940849.9771480999</v>
       </c>
       <c r="V18" t="n">
-        <v>789563.0579655</v>
+        <v>818784.4610907601</v>
       </c>
       <c r="W18" t="n">
         <v>3660</v>
@@ -9046,8 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,121862;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,104584;31,33591;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11565971.019455</v>
       </c>
@@ -9067,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>631006.115153935</v>
       </c>
       <c r="AS18" t="n">
-        <v>15961973.30247053</v>
+        <v>16592979.41762446</v>
       </c>
     </row>
     <row r="19">
@@ -9134,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8651188.654191501</v>
+        <v>8795360.848459201</v>
       </c>
       <c r="U19" t="n">
-        <v>1477211.354169</v>
+        <v>1523415.8256061</v>
       </c>
       <c r="V19" t="n">
-        <v>1297390.357546</v>
+        <v>1326611.76067126</v>
       </c>
       <c r="W19" t="n">
         <v>4700</v>
@@ -9181,8 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,121862;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,104584;31,33591;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18766074.18082</v>
       </c>
@@ -9202,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>631006.115153935</v>
       </c>
       <c r="AS19" t="n">
-        <v>26321710.5538471</v>
+        <v>26952716.66900104</v>
       </c>
     </row>
     <row r="20">
@@ -9269,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>216997.163275</v>
+        <v>220081.607247</v>
       </c>
       <c r="U20" t="n">
-        <v>40559.842284</v>
+        <v>41643.8132196</v>
       </c>
       <c r="V20" t="n">
-        <v>25075.158862</v>
+        <v>25563.75339768</v>
       </c>
       <c r="W20" t="n">
         <v>1080</v>
@@ -9316,8 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,2322;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,2128;31,751;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>562861.8542200001</v>
       </c>
@@ -9337,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>13373.2620078</v>
       </c>
       <c r="AS20" t="n">
-        <v>646197.7384911</v>
+        <v>659571.0004989</v>
       </c>
     </row>
     <row r="21">
@@ -9404,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>282199.325343</v>
+        <v>286331.66922374</v>
       </c>
       <c r="U21" t="n">
-        <v>50749.14741300001</v>
+        <v>52143.77200206</v>
       </c>
       <c r="V21" t="n">
-        <v>34821.662946</v>
+        <v>35529.0148978</v>
       </c>
       <c r="W21" t="n">
         <v>1410</v>
@@ -9451,8 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,3146;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,2891;31,979;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>668993.29804</v>
       </c>
@@ -9472,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>17822.527268104</v>
       </c>
       <c r="AS21" t="n">
-        <v>840175.2544322</v>
+        <v>857997.781700304</v>
       </c>
     </row>
     <row r="22">
@@ -9539,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>391531.5023080001</v>
+        <v>399257.57681312</v>
       </c>
       <c r="U22" t="n">
-        <v>68213.6189555</v>
+        <v>70702.33664807001</v>
       </c>
       <c r="V22" t="n">
-        <v>51778.00637800001</v>
+        <v>53260.07458068</v>
       </c>
       <c r="W22" t="n">
         <v>2540</v>
@@ -9586,8 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,6078;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,5509;31,1773;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>849965.2350900001</v>
       </c>
@@ -9607,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>33420.118749263</v>
       </c>
       <c r="AS22" t="n">
-        <v>1172587.00977445</v>
+        <v>1206007.128523713</v>
       </c>
     </row>
     <row r="23">
@@ -9674,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>449056.452546</v>
+        <v>459216.80755772</v>
       </c>
       <c r="U23" t="n">
-        <v>79746.556734</v>
+        <v>83012.31128303999</v>
       </c>
       <c r="V23" t="n">
-        <v>61851.9424075</v>
+        <v>63845.9041797</v>
       </c>
       <c r="W23" t="n">
         <v>2700</v>
@@ -9721,8 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,8205;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,7301;31,2341;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>928841.244895</v>
       </c>
@@ -9742,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>44159.341590246</v>
       </c>
       <c r="AS23" t="n">
-        <v>1368150.362853725</v>
+        <v>1412309.704443971</v>
       </c>
     </row>
     <row r="24">
@@ -9809,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>518380.8082</v>
+        <v>530612.152824</v>
       </c>
       <c r="U24" t="n">
-        <v>95951.28950899999</v>
+        <v>99873.65863291999</v>
       </c>
       <c r="V24" t="n">
-        <v>75754.4515065</v>
+        <v>78209.88155352999</v>
       </c>
       <c r="W24" t="n">
         <v>3020</v>
@@ -9856,8 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,9995;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,8828;31,2830;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1053180.499545</v>
       </c>
@@ -9877,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>53414.4143494705</v>
       </c>
       <c r="AS24" t="n">
-        <v>1629958.801974475</v>
+        <v>1683373.216323945</v>
       </c>
     </row>
     <row r="25">
@@ -9944,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>660226.2699134999</v>
+        <v>677027.08776015</v>
       </c>
       <c r="U25" t="n">
-        <v>129098.171507</v>
+        <v>134481.7418997</v>
       </c>
       <c r="V25" t="n">
-        <v>103950.8680215</v>
+        <v>107426.69574228</v>
       </c>
       <c r="W25" t="n">
         <v>3660</v>
@@ -9991,8 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,14083;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,12166;31,3906;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1311007.809035</v>
       </c>
@@ -10012,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>73933.46295076501</v>
       </c>
       <c r="AS25" t="n">
-        <v>2164111.144435425</v>
+        <v>2238044.60738619</v>
       </c>
     </row>
   </sheetData>
